--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_18_29.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_18_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2116768.277732248</v>
+        <v>2114224.468225164</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283195</v>
+        <v>416855.1052283193</v>
       </c>
     </row>
     <row r="9">
@@ -668,13 +668,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>263.7138800015061</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>12.83417464571001</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="I2" t="n">
         <v>115.3066195468971</v>
@@ -707,25 +707,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>104.1383913127193</v>
+        <v>259.6326967715747</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -738,16 +738,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -783,28 +783,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.15252495527767</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>215.8672595029606</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>37.34724819842792</v>
       </c>
     </row>
     <row r="4">
@@ -832,7 +832,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>63.2749934433789</v>
+        <v>152.3821593358568</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -862,28 +862,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>60.96760033386538</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,13 +893,13 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
         <v>263.7138800015061</v>
-      </c>
-      <c r="C5" t="n">
-        <v>212.5689651179051</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -911,7 +911,7 @@
         <v>12.83417464571001</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -953,10 +953,10 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>59.80127191868286</v>
       </c>
       <c r="W5" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -972,7 +972,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>127.4695742187183</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -1023,10 +1023,10 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -1035,13 +1035,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>242.8563301598667</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1054,16 +1054,16 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>141.1513425904716</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>53.36410705248011</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1111,7 +1111,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1130,13 +1130,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1145,13 +1145,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>197.9574587768022</v>
+        <v>411.5491597882495</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.76608425465025</v>
+        <v>65.76608425465056</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,22 +1181,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4854171348408</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6645630646898</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>197.824401034009</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1218,7 +1218,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>155.8686312908645</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
@@ -1227,10 +1227,10 @@
         <v>135.3351760237737</v>
       </c>
       <c r="H9" t="n">
-        <v>91.06264775161806</v>
+        <v>92.8390969161451</v>
       </c>
       <c r="I9" t="n">
-        <v>20.24979976115233</v>
+        <v>20.24979976115247</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1260,7 +1260,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>134.3791152901738</v>
+        <v>134.3791152901739</v>
       </c>
       <c r="T9" t="n">
         <v>192.0697045406877</v>
@@ -1291,19 +1291,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>114.3661786811008</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1336,28 +1336,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5869591640955</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6738502503845</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7514885103388</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271897703044</v>
+        <v>20.53952247906581</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1427,7 +1427,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701337</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1464,7 +1464,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>79.05856366754284</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>83.06560892428169</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1701,7 +1701,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1768,19 +1768,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>9.146142788179425</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>19.91555826189057</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1904,7 +1904,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.2409687174118</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819412</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>59.45282559760265</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2053,7 +2053,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>145.2857567968985</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2093,10 +2093,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444135</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2236,16 +2236,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>59.96838802184498</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2254,10 +2254,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2333,7 +2333,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2482,10 +2482,10 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>48.47457675531671</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2533,7 +2533,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2606,7 +2606,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2713,25 +2713,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>39.52129633182942</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>29.24923305751697</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012339</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2798,7 +2798,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -2807,7 +2807,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2950,25 +2950,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>45.66054613217526</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3004,7 +3004,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>228.9553704673005</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520961</v>
       </c>
     </row>
     <row r="32">
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3193,13 +3193,13 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
@@ -3253,7 +3253,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>14.92158678358204</v>
       </c>
     </row>
     <row r="35">
@@ -3424,7 +3424,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>130.1208074460232</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3433,16 +3433,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>1.79977260571614</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3503,7 +3503,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710066</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3664,10 +3664,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3676,7 +3676,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428169</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3727,7 +3727,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>6.600826611594925</v>
       </c>
     </row>
     <row r="41">
@@ -3755,7 +3755,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444135</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,13 +3788,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3834,7 +3834,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H42" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3901,22 +3901,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>83.06560892427808</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3961,10 +3961,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>152.0575603057045</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3980,13 +3980,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.6830416206819</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G44" t="n">
         <v>409.8033385187866</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4071,7 +4071,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H45" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4132,16 +4132,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>41.33703994142957</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4150,10 +4150,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4195,7 +4195,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>74.53917159608946</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>416.9099126163965</v>
+        <v>423.8554133656</v>
       </c>
       <c r="C2" t="n">
-        <v>416.9099126163965</v>
+        <v>423.8554133656</v>
       </c>
       <c r="D2" t="n">
-        <v>416.9099126163965</v>
+        <v>423.8554133656</v>
       </c>
       <c r="E2" t="n">
-        <v>416.9099126163965</v>
+        <v>423.8554133656</v>
       </c>
       <c r="F2" t="n">
-        <v>150.5322560492186</v>
+        <v>416.9099126163966</v>
       </c>
       <c r="G2" t="n">
-        <v>137.5684432757741</v>
+        <v>403.9460998429521</v>
       </c>
       <c r="H2" t="n">
         <v>137.5684432757741</v>
@@ -4328,22 +4328,22 @@
         <v>21.09711040012049</v>
       </c>
       <c r="J2" t="n">
-        <v>49.28269087917579</v>
+        <v>49.28269087917556</v>
       </c>
       <c r="K2" t="n">
-        <v>142.2640879052542</v>
+        <v>142.264087905254</v>
       </c>
       <c r="L2" t="n">
-        <v>294.5174947515907</v>
+        <v>294.5174947515903</v>
       </c>
       <c r="M2" t="n">
-        <v>495.5981834030605</v>
+        <v>495.5981834030603</v>
       </c>
       <c r="N2" t="n">
-        <v>704.5463761991316</v>
+        <v>704.5463761991315</v>
       </c>
       <c r="O2" t="n">
-        <v>888.5149683358413</v>
+        <v>888.5149683358411</v>
       </c>
       <c r="P2" t="n">
         <v>1011.026904601763</v>
@@ -4355,25 +4355,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S2" t="n">
-        <v>1054.855520006025</v>
+        <v>900.5447187946889</v>
       </c>
       <c r="T2" t="n">
-        <v>1054.855520006025</v>
+        <v>686.1106626298169</v>
       </c>
       <c r="U2" t="n">
-        <v>1054.855520006025</v>
+        <v>686.1106626298169</v>
       </c>
       <c r="V2" t="n">
-        <v>949.6652257507525</v>
+        <v>423.8554133656</v>
       </c>
       <c r="W2" t="n">
-        <v>949.6652257507525</v>
+        <v>423.8554133656</v>
       </c>
       <c r="X2" t="n">
-        <v>683.2875691835745</v>
+        <v>423.8554133656</v>
       </c>
       <c r="Y2" t="n">
-        <v>416.9099126163965</v>
+        <v>423.8554133656</v>
       </c>
     </row>
     <row r="3">
@@ -4383,16 +4383,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>650.2565623210693</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="C3" t="n">
-        <v>475.8035330399423</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="D3" t="n">
-        <v>326.869123378691</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="E3" t="n">
-        <v>167.6316683732355</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="F3" t="n">
         <v>21.09711040012049</v>
@@ -4407,13 +4407,13 @@
         <v>21.09711040012049</v>
       </c>
       <c r="J3" t="n">
-        <v>117.4455628004799</v>
+        <v>117.4455628004801</v>
       </c>
       <c r="K3" t="n">
-        <v>192.1295835699341</v>
+        <v>192.1295835699343</v>
       </c>
       <c r="L3" t="n">
-        <v>338.8740072302309</v>
+        <v>338.874007230231</v>
       </c>
       <c r="M3" t="n">
         <v>529.4746963267547</v>
@@ -4431,28 +4431,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R3" t="n">
-        <v>1036.519636212815</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S3" t="n">
-        <v>1036.519636212815</v>
+        <v>906.2192216098642</v>
       </c>
       <c r="T3" t="n">
-        <v>1036.519636212815</v>
+        <v>709.4101432413019</v>
       </c>
       <c r="U3" t="n">
-        <v>1036.519636212815</v>
+        <v>481.2742972781153</v>
       </c>
       <c r="V3" t="n">
-        <v>1036.519636212815</v>
+        <v>481.2742972781153</v>
       </c>
       <c r="W3" t="n">
-        <v>818.4718993411373</v>
+        <v>227.0369405499137</v>
       </c>
       <c r="X3" t="n">
-        <v>818.4718993411373</v>
+        <v>227.0369405499137</v>
       </c>
       <c r="Y3" t="n">
-        <v>818.4718993411373</v>
+        <v>189.3124474201885</v>
       </c>
     </row>
     <row r="4">
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>85.01124519141231</v>
+        <v>175.0184834666425</v>
       </c>
       <c r="C4" t="n">
-        <v>85.01124519141231</v>
+        <v>175.0184834666425</v>
       </c>
       <c r="D4" t="n">
-        <v>85.01124519141231</v>
+        <v>175.0184834666425</v>
       </c>
       <c r="E4" t="n">
-        <v>85.01124519141231</v>
+        <v>175.0184834666425</v>
       </c>
       <c r="F4" t="n">
-        <v>85.01124519141231</v>
+        <v>175.0184834666425</v>
       </c>
       <c r="G4" t="n">
-        <v>85.01124519141231</v>
+        <v>175.0184834666425</v>
       </c>
       <c r="H4" t="n">
         <v>21.09711040012049</v>
@@ -4492,16 +4492,16 @@
         <v>126.4133765287947</v>
       </c>
       <c r="L4" t="n">
-        <v>316.708372655101</v>
+        <v>316.7083726551008</v>
       </c>
       <c r="M4" t="n">
-        <v>527.7368878375337</v>
+        <v>527.7368878375335</v>
       </c>
       <c r="N4" t="n">
-        <v>739.1822330227044</v>
+        <v>739.1822330227045</v>
       </c>
       <c r="O4" t="n">
-        <v>918.469937207554</v>
+        <v>918.4699372075542</v>
       </c>
       <c r="P4" t="n">
         <v>1048.360858816803</v>
@@ -4510,28 +4510,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R4" t="n">
-        <v>1054.855520006025</v>
+        <v>926.0629918407075</v>
       </c>
       <c r="S4" t="n">
-        <v>1054.855520006025</v>
+        <v>719.2759572512189</v>
       </c>
       <c r="T4" t="n">
-        <v>1054.855520006025</v>
+        <v>719.2759572512189</v>
       </c>
       <c r="U4" t="n">
-        <v>1054.855520006025</v>
+        <v>657.6925225705468</v>
       </c>
       <c r="V4" t="n">
-        <v>800.1710318001377</v>
+        <v>403.0080343646599</v>
       </c>
       <c r="W4" t="n">
-        <v>533.7933752329598</v>
+        <v>403.0080343646599</v>
       </c>
       <c r="X4" t="n">
-        <v>305.8038243349424</v>
+        <v>175.0184834666425</v>
       </c>
       <c r="Y4" t="n">
-        <v>85.01124519141231</v>
+        <v>175.0184834666425</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>255.7225503044907</v>
+        <v>573.7617370571243</v>
       </c>
       <c r="C5" t="n">
-        <v>41.00642392276842</v>
+        <v>573.7617370571243</v>
       </c>
       <c r="D5" t="n">
-        <v>41.00642392276842</v>
+        <v>307.3840804899463</v>
       </c>
       <c r="E5" t="n">
-        <v>41.00642392276842</v>
+        <v>307.3840804899463</v>
       </c>
       <c r="F5" t="n">
-        <v>34.06092317356495</v>
+        <v>300.4385797407429</v>
       </c>
       <c r="G5" t="n">
-        <v>21.09711040012049</v>
+        <v>287.4747669672984</v>
       </c>
       <c r="H5" t="n">
         <v>21.09711040012049</v>
@@ -4571,7 +4571,7 @@
         <v>142.264087905254</v>
       </c>
       <c r="L5" t="n">
-        <v>294.5174947515903</v>
+        <v>294.5174947515905</v>
       </c>
       <c r="M5" t="n">
         <v>495.5981834030603</v>
@@ -4592,25 +4592,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S5" t="n">
-        <v>1054.855520006025</v>
+        <v>900.5447187946889</v>
       </c>
       <c r="T5" t="n">
-        <v>1054.855520006025</v>
+        <v>900.5447187946889</v>
       </c>
       <c r="U5" t="n">
-        <v>1054.855520006025</v>
+        <v>900.5447187946889</v>
       </c>
       <c r="V5" t="n">
-        <v>1054.855520006025</v>
+        <v>840.1393936243022</v>
       </c>
       <c r="W5" t="n">
-        <v>788.4778634388466</v>
+        <v>840.1393936243022</v>
       </c>
       <c r="X5" t="n">
-        <v>788.4778634388466</v>
+        <v>840.1393936243022</v>
       </c>
       <c r="Y5" t="n">
-        <v>522.1002068716687</v>
+        <v>573.7617370571243</v>
       </c>
     </row>
     <row r="6">
@@ -4647,19 +4647,19 @@
         <v>21.09711040012049</v>
       </c>
       <c r="K6" t="n">
-        <v>192.1295835699343</v>
+        <v>95.78113116957465</v>
       </c>
       <c r="L6" t="n">
-        <v>338.874007230231</v>
+        <v>242.5255548298713</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4746963267547</v>
+        <v>433.1262439263951</v>
       </c>
       <c r="N6" t="n">
-        <v>739.5286634293598</v>
+        <v>643.1802110290001</v>
       </c>
       <c r="O6" t="n">
-        <v>909.4672107560896</v>
+        <v>904.2569522304912</v>
       </c>
       <c r="P6" t="n">
         <v>1026.524810789493</v>
@@ -4671,25 +4671,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S6" t="n">
-        <v>1054.855520006025</v>
+        <v>906.2192216098642</v>
       </c>
       <c r="T6" t="n">
-        <v>1054.855520006025</v>
+        <v>709.4101432413019</v>
       </c>
       <c r="U6" t="n">
-        <v>1054.855520006025</v>
+        <v>709.4101432413019</v>
       </c>
       <c r="V6" t="n">
-        <v>819.7034117742819</v>
+        <v>474.2580350095591</v>
       </c>
       <c r="W6" t="n">
-        <v>565.4660550460803</v>
+        <v>228.9486106056533</v>
       </c>
       <c r="X6" t="n">
-        <v>357.6145548405475</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="Y6" t="n">
-        <v>149.8542560755936</v>
+        <v>21.09711040012049</v>
       </c>
     </row>
     <row r="7">
@@ -4699,16 +4699,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>608.5939046205087</v>
+        <v>225.1168882493048</v>
       </c>
       <c r="C7" t="n">
-        <v>466.0167908927597</v>
+        <v>225.1168882493048</v>
       </c>
       <c r="D7" t="n">
-        <v>315.900151480424</v>
+        <v>75.00024883696909</v>
       </c>
       <c r="E7" t="n">
-        <v>167.9870578980309</v>
+        <v>75.00024883696909</v>
       </c>
       <c r="F7" t="n">
         <v>21.09711040012049</v>
@@ -4726,19 +4726,19 @@
         <v>21.09711040012049</v>
       </c>
       <c r="K7" t="n">
-        <v>126.4133765287949</v>
+        <v>126.4133765287946</v>
       </c>
       <c r="L7" t="n">
-        <v>316.708372655101</v>
+        <v>316.7083726551008</v>
       </c>
       <c r="M7" t="n">
-        <v>527.7368878375337</v>
+        <v>527.7368878375335</v>
       </c>
       <c r="N7" t="n">
-        <v>739.1822330227046</v>
+        <v>739.1822330227045</v>
       </c>
       <c r="O7" t="n">
-        <v>918.4699372075543</v>
+        <v>918.4699372075542</v>
       </c>
       <c r="P7" t="n">
         <v>1048.360858816803</v>
@@ -4747,28 +4747,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R7" t="n">
-        <v>1054.855520006025</v>
+        <v>926.0629918407075</v>
       </c>
       <c r="S7" t="n">
-        <v>1054.855520006025</v>
+        <v>926.0629918407075</v>
       </c>
       <c r="T7" t="n">
-        <v>829.3864837640389</v>
+        <v>700.5939555987218</v>
       </c>
       <c r="U7" t="n">
-        <v>829.3864837640389</v>
+        <v>700.5939555987218</v>
       </c>
       <c r="V7" t="n">
-        <v>829.3864837640389</v>
+        <v>445.9094673928349</v>
       </c>
       <c r="W7" t="n">
-        <v>829.3864837640389</v>
+        <v>445.9094673928349</v>
       </c>
       <c r="X7" t="n">
-        <v>829.3864837640389</v>
+        <v>445.9094673928349</v>
       </c>
       <c r="Y7" t="n">
-        <v>608.5939046205087</v>
+        <v>225.1168882493048</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1079.294942698202</v>
+        <v>1284.347317305397</v>
       </c>
       <c r="C8" t="n">
-        <v>710.3324257577908</v>
+        <v>1284.347317305397</v>
       </c>
       <c r="D8" t="n">
-        <v>710.3324257577908</v>
+        <v>926.0816186986467</v>
       </c>
       <c r="E8" t="n">
-        <v>324.5441731595466</v>
+        <v>540.2933661004025</v>
       </c>
       <c r="F8" t="n">
-        <v>317.5986724103431</v>
+        <v>533.3478653511991</v>
       </c>
       <c r="G8" t="n">
-        <v>117.6416433428661</v>
+        <v>117.6416433428662</v>
       </c>
       <c r="H8" t="n">
-        <v>117.6416433428661</v>
+        <v>117.6416433428662</v>
       </c>
       <c r="I8" t="n">
-        <v>51.21125520685573</v>
+        <v>51.21125520685554</v>
       </c>
       <c r="J8" t="n">
-        <v>187.3702251467168</v>
+        <v>187.3702251467166</v>
       </c>
       <c r="K8" t="n">
-        <v>442.1757437607423</v>
+        <v>442.1757437607407</v>
       </c>
       <c r="L8" t="n">
-        <v>795.1862829045933</v>
+        <v>795.1862829045913</v>
       </c>
       <c r="M8" t="n">
-        <v>1219.647962995228</v>
+        <v>1219.647962995224</v>
       </c>
       <c r="N8" t="n">
-        <v>1655.591685209586</v>
+        <v>1655.591685209581</v>
       </c>
       <c r="O8" t="n">
-        <v>2053.905718940598</v>
+        <v>2053.905718940591</v>
       </c>
       <c r="P8" t="n">
-        <v>2359.356530550201</v>
+        <v>2359.356530550192</v>
       </c>
       <c r="Q8" t="n">
-        <v>2540.564622661167</v>
+        <v>2540.564622661158</v>
       </c>
       <c r="R8" t="n">
-        <v>2560.562760342787</v>
+        <v>2560.562760342777</v>
       </c>
       <c r="S8" t="n">
-        <v>2560.562760342787</v>
+        <v>2435.83001576213</v>
       </c>
       <c r="T8" t="n">
-        <v>2560.562760342787</v>
+        <v>2227.077931858403</v>
       </c>
       <c r="U8" t="n">
-        <v>2560.562760342787</v>
+        <v>2227.077931858403</v>
       </c>
       <c r="V8" t="n">
-        <v>2229.499872999216</v>
+        <v>2227.077931858403</v>
       </c>
       <c r="W8" t="n">
-        <v>2229.499872999216</v>
+        <v>1874.309276588289</v>
       </c>
       <c r="X8" t="n">
-        <v>1856.034114738136</v>
+        <v>1674.486649281209</v>
       </c>
       <c r="Y8" t="n">
-        <v>1465.894782762324</v>
+        <v>1284.347317305397</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>929.5097208010814</v>
+        <v>929.5097208010718</v>
       </c>
       <c r="C9" t="n">
-        <v>755.0566915199544</v>
+        <v>755.0566915199448</v>
       </c>
       <c r="D9" t="n">
-        <v>606.1222818587031</v>
+        <v>606.1222818586936</v>
       </c>
       <c r="E9" t="n">
-        <v>446.8848268532476</v>
+        <v>448.6792199487294</v>
       </c>
       <c r="F9" t="n">
-        <v>300.3502688801326</v>
+        <v>302.1446619756144</v>
       </c>
       <c r="G9" t="n">
-        <v>163.6480708763208</v>
+        <v>165.4424639718026</v>
       </c>
       <c r="H9" t="n">
-        <v>71.6655983999389</v>
+        <v>71.66559839993884</v>
       </c>
       <c r="I9" t="n">
-        <v>51.21125520685573</v>
+        <v>51.21125520685554</v>
       </c>
       <c r="J9" t="n">
-        <v>113.4887579637189</v>
+        <v>113.4887579637183</v>
       </c>
       <c r="K9" t="n">
-        <v>482.1680661379791</v>
+        <v>559.90633895727</v>
       </c>
       <c r="L9" t="n">
-        <v>776.7040495714607</v>
+        <v>854.4423223907506</v>
       </c>
       <c r="M9" t="n">
-        <v>1139.770518045762</v>
+        <v>1217.508790865051</v>
       </c>
       <c r="N9" t="n">
-        <v>1526.854920518332</v>
+        <v>1851.248074049889</v>
       </c>
       <c r="O9" t="n">
-        <v>1858.741730505722</v>
+        <v>2183.134884037277</v>
       </c>
       <c r="P9" t="n">
-        <v>2421.055229888884</v>
+        <v>2430.170242466901</v>
       </c>
       <c r="Q9" t="n">
-        <v>2536.272628442629</v>
+        <v>2545.387641020646</v>
       </c>
       <c r="R9" t="n">
-        <v>2560.562760342787</v>
+        <v>2560.562760342777</v>
       </c>
       <c r="S9" t="n">
-        <v>2424.826280251702</v>
+        <v>2424.826280251692</v>
       </c>
       <c r="T9" t="n">
-        <v>2230.816477685351</v>
+        <v>2230.816477685341</v>
       </c>
       <c r="U9" t="n">
-        <v>2002.72632175158</v>
+        <v>2002.726321751571</v>
       </c>
       <c r="V9" t="n">
-        <v>1767.574213519838</v>
+        <v>1767.574213519828</v>
       </c>
       <c r="W9" t="n">
-        <v>1513.336856791636</v>
+        <v>1513.336856791627</v>
       </c>
       <c r="X9" t="n">
-        <v>1305.485356586103</v>
+        <v>1305.485356586094</v>
       </c>
       <c r="Y9" t="n">
-        <v>1097.725057821149</v>
+        <v>1097.72505782114</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>461.5356888943318</v>
+        <v>367.0373856326728</v>
       </c>
       <c r="C10" t="n">
-        <v>461.5356888943318</v>
+        <v>198.1012027047659</v>
       </c>
       <c r="D10" t="n">
-        <v>461.5356888943318</v>
+        <v>198.1012027047659</v>
       </c>
       <c r="E10" t="n">
-        <v>313.6225953119387</v>
+        <v>198.1012027047659</v>
       </c>
       <c r="F10" t="n">
-        <v>166.7326478140283</v>
+        <v>51.21125520685554</v>
       </c>
       <c r="G10" t="n">
-        <v>51.21125520685573</v>
+        <v>51.21125520685554</v>
       </c>
       <c r="H10" t="n">
-        <v>51.21125520685573</v>
+        <v>51.21125520685554</v>
       </c>
       <c r="I10" t="n">
-        <v>51.21125520685573</v>
+        <v>51.21125520685554</v>
       </c>
       <c r="J10" t="n">
-        <v>76.63468308380163</v>
+        <v>76.63468308380119</v>
       </c>
       <c r="K10" t="n">
-        <v>248.250021567657</v>
+        <v>248.2500215676562</v>
       </c>
       <c r="L10" t="n">
-        <v>523.3850043368923</v>
+        <v>523.3850043368911</v>
       </c>
       <c r="M10" t="n">
-        <v>823.865389990404</v>
+        <v>823.8653899904023</v>
       </c>
       <c r="N10" t="n">
-        <v>1122.635640101613</v>
+        <v>1122.635640101611</v>
       </c>
       <c r="O10" t="n">
-        <v>1382.582027931092</v>
+        <v>1382.582027931089</v>
       </c>
       <c r="P10" t="n">
-        <v>1581.490387616501</v>
+        <v>1581.490387616498</v>
       </c>
       <c r="Q10" t="n">
-        <v>1635.769145477364</v>
+        <v>1635.769145477361</v>
       </c>
       <c r="R10" t="n">
-        <v>1635.769145477364</v>
+        <v>1533.156055412618</v>
       </c>
       <c r="S10" t="n">
-        <v>1635.769145477364</v>
+        <v>1336.515802634452</v>
       </c>
       <c r="T10" t="n">
-        <v>1635.769145477364</v>
+        <v>1113.534501108857</v>
       </c>
       <c r="U10" t="n">
-        <v>1346.650771972006</v>
+        <v>1092.78750870576</v>
       </c>
       <c r="V10" t="n">
-        <v>1091.966283766119</v>
+        <v>838.1030204998731</v>
       </c>
       <c r="W10" t="n">
-        <v>1091.966283766119</v>
+        <v>548.6858504629125</v>
       </c>
       <c r="X10" t="n">
-        <v>863.9767328681016</v>
+        <v>548.6858504629125</v>
       </c>
       <c r="Y10" t="n">
-        <v>643.1841537245715</v>
+        <v>548.6858504629125</v>
       </c>
     </row>
     <row r="11">
@@ -5021,19 +5021,19 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
@@ -5042,7 +5042,7 @@
         <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332386</v>
@@ -5054,7 +5054,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5066,22 +5066,22 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756265</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M12" t="n">
-        <v>1072.713683962606</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N12" t="n">
-        <v>1700.311647517212</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O12" t="n">
-        <v>2252.221377756499</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400712</v>
+        <v>695.5020655703091</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121643</v>
+        <v>695.5020655703091</v>
       </c>
       <c r="D13" t="n">
-        <v>344.9174178121643</v>
+        <v>545.3854261579734</v>
       </c>
       <c r="E13" t="n">
-        <v>344.9174178121643</v>
+        <v>397.4723325755803</v>
       </c>
       <c r="F13" t="n">
-        <v>344.9174178121643</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G13" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.052681478294</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038326</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797726</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910807</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570816</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853359</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487565</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510506</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854704</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.701365648817</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138393</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703091</v>
       </c>
     </row>
     <row r="14">
@@ -5267,22 +5267,22 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
         <v>2206.558663014778</v>
@@ -5294,7 +5294,7 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852255</v>
@@ -5312,13 +5312,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756265</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L15" t="n">
-        <v>776.17510664033</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M15" t="n">
-        <v>1373.553594266882</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N15" t="n">
-        <v>2001.151557821488</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5416,31 +5416,31 @@
         <v>411.9631215597619</v>
       </c>
       <c r="D16" t="n">
-        <v>411.9631215597619</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E16" t="n">
-        <v>402.7245934908938</v>
+        <v>113.9333885650331</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5495,37 +5495,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5534,28 +5534,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>427.7414352191925</v>
+        <v>409.1360811687896</v>
       </c>
       <c r="L18" t="n">
-        <v>427.7414352191925</v>
+        <v>904.4616873845483</v>
       </c>
       <c r="M18" t="n">
-        <v>680.0291294438176</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>653.7474797708871</v>
+        <v>762.5477693179072</v>
       </c>
       <c r="C19" t="n">
-        <v>484.8112968429802</v>
+        <v>593.6115863900003</v>
       </c>
       <c r="D19" t="n">
-        <v>484.8112968429802</v>
+        <v>443.4949469776645</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429802</v>
+        <v>295.5818533952714</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5680,43 +5680,43 @@
         <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910807</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570816</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2264.108249235163</v>
       </c>
       <c r="T19" t="n">
-        <v>2117.354959541328</v>
+        <v>2044.506784258105</v>
       </c>
       <c r="U19" t="n">
-        <v>1828.279732885526</v>
+        <v>1755.431557602302</v>
       </c>
       <c r="V19" t="n">
-        <v>1573.595244679639</v>
+        <v>1500.747069396415</v>
       </c>
       <c r="W19" t="n">
-        <v>1284.178074642678</v>
+        <v>1211.329899359455</v>
       </c>
       <c r="X19" t="n">
-        <v>1056.188523744661</v>
+        <v>983.3403484614373</v>
       </c>
       <c r="Y19" t="n">
-        <v>835.3959446011309</v>
+        <v>762.5477693179072</v>
       </c>
     </row>
     <row r="20">
@@ -5732,28 +5732,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5826,28 +5826,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>95.58405025273903</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L21" t="n">
-        <v>95.58405025273903</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438176</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q21" t="n">
         <v>2516.421633107662</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>545.3854261579752</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5963,43 +5963,43 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
         <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6008,31 +6008,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6060,25 +6060,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J24" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K24" t="n">
-        <v>95.58405025273903</v>
+        <v>139.234765840794</v>
       </c>
       <c r="L24" t="n">
-        <v>95.58405025273903</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438176</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O24" t="n">
         <v>1859.536823237711</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>768.5380889459582</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908939</v>
+        <v>599.6019060180513</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908939</v>
+        <v>599.6019060180513</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>451.6888124356582</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G25" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>950.1865537761979</v>
       </c>
     </row>
     <row r="26">
@@ -6206,13 +6206,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
@@ -6221,22 +6221,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6260,13 +6260,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6300,25 +6300,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P27" t="n">
         <v>2283.159972732779</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400694</v>
       </c>
       <c r="C28" t="n">
-        <v>411.9631215597619</v>
+        <v>513.8536007400694</v>
       </c>
       <c r="D28" t="n">
-        <v>411.9631215597619</v>
+        <v>363.7369613277336</v>
       </c>
       <c r="E28" t="n">
-        <v>411.9631215597619</v>
+        <v>215.8238677453405</v>
       </c>
       <c r="F28" t="n">
-        <v>265.0731740618515</v>
+        <v>215.8238677453405</v>
       </c>
       <c r="G28" t="n">
-        <v>265.0731740618515</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H28" t="n">
-        <v>123.3613429040496</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487565</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510506</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854704</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648817</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X28" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138393</v>
       </c>
       <c r="Y28" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703091</v>
       </c>
     </row>
     <row r="29">
@@ -6446,25 +6446,25 @@
         <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6543,25 +6543,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>427.7414352191925</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L30" t="n">
-        <v>923.0670414349511</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M30" t="n">
-        <v>1520.445529061503</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N30" t="n">
-        <v>2148.04349261611</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>513.85360074007</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908939</v>
+        <v>513.85360074007</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908939</v>
+        <v>363.7369613277342</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908939</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6634,37 +6634,37 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580259</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832661</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487566</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510507</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703097</v>
       </c>
     </row>
     <row r="32">
@@ -6680,13 +6680,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6695,13 +6695,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6713,7 +6713,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6774,25 +6774,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438176</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P33" t="n">
         <v>2283.159972732779</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>719.5738700011939</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>550.637687073287</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
         <v>235.5284942057738</v>
@@ -6871,37 +6871,37 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138397</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>901.2223348314336</v>
       </c>
     </row>
     <row r="35">
@@ -6911,34 +6911,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6968,19 +6968,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7017,19 +7017,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438176</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P36" t="n">
         <v>2283.159972732779</v>
@@ -7072,22 +7072,22 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7151,43 +7151,43 @@
         <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111712</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7199,10 +7199,10 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
         <v>4151.812499466572</v>
@@ -7245,34 +7245,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797186</v>
+        <v>119.290296770379</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>727.9786782557277</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7375,7 +7375,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>909.6271430859674</v>
       </c>
     </row>
     <row r="41">
@@ -7385,34 +7385,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192591</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7436,25 +7436,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7482,28 +7482,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797186</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797186</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438179</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P42" t="n">
         <v>2283.159972732779</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400676</v>
+        <v>809.0422355233313</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121607</v>
+        <v>640.1060525954244</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121607</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121607</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121607</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G43" t="n">
-        <v>177.7213185270406</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782919</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038306</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797706</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
-        <v>1248.150240910805</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570814</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279799</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853357</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580257</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832659</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487564</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510505</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854702</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648815</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611855</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138374</v>
+        <v>990.6907003535711</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703073</v>
+        <v>990.6907003535711</v>
       </c>
     </row>
     <row r="44">
@@ -7622,16 +7622,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
         <v>793.7736536168611</v>
@@ -7640,25 +7640,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7673,25 +7673,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7719,34 +7719,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>589.1422692637304</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M45" t="n">
-        <v>1186.520756890282</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N45" t="n">
-        <v>1814.118720444888</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>2366.028450684175</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>653.7474797708871</v>
+        <v>727.9786782557277</v>
       </c>
       <c r="C46" t="n">
-        <v>484.8112968429803</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D46" t="n">
-        <v>484.8112968429803</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E46" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
@@ -7825,31 +7825,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487565</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510506</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854704</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.701365648817</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1358.409273127515</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>1130.419722229497</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>909.6271430859674</v>
       </c>
     </row>
   </sheetData>
@@ -8000,7 +8000,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>60.51967546761151</v>
+        <v>60.51967546761153</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>99.37288961069042</v>
+        <v>99.37288961069065</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8140,13 +8140,13 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L4" t="n">
-        <v>162.4747015415544</v>
+        <v>162.4747015415543</v>
       </c>
       <c r="M4" t="n">
         <v>178.5096609094456</v>
       </c>
       <c r="N4" t="n">
-        <v>171.8177168444614</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O4" t="n">
         <v>163.0416663658825</v>
@@ -8295,7 +8295,7 @@
         <v>2.051220519418266</v>
       </c>
       <c r="K6" t="n">
-        <v>97.32166909127238</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8307,10 +8307,10 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>92.05878169167806</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>5.262887399594376</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -8532,7 +8532,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>185.9417291143038</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8541,19 +8541,19 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>249.1463441538069</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>45.52166981132082</v>
+        <v>36.31458639917334</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -11060,13 +11060,13 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>7.958078640513122e-13</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182163</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>66.3624843553884</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23543,7 +23543,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>9.237055564881302e-13</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23656,22 +23656,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>137.2878198583898</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>125.5054897610407</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23887,28 +23887,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>85.96822242532861</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23941,7 +23941,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>72.11969353038972</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24124,16 +24124,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>86.46557462472418</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24142,10 +24142,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24370,10 +24370,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>96.94647126761453</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24421,7 +24421,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24601,25 +24601,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>126.0028419604394</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>52.01660326104856</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24838,25 +24838,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>100.7734165143939</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24892,7 +24892,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>57.22910392194368</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25081,13 +25081,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>203.6630665685128</v>
       </c>
     </row>
     <row r="35">
@@ -25312,7 +25312,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>37.12601365260466</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25321,16 +25321,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25552,10 +25552,10 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25564,7 +25564,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>57.2291039219422</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25615,7 +25615,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>211.9838267404999</v>
       </c>
     </row>
     <row r="41">
@@ -25789,22 +25789,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>57.22910392194581</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25849,10 +25849,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>73.65209508333268</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26020,16 +26020,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>138.4949402405077</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26038,10 +26038,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26083,7 +26083,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>211.9838267405015</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>863232.5960138583</v>
+        <v>863232.5960138582</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>838304.2560524779</v>
+        <v>838304.2560524781</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>838304.2560524781</v>
+        <v>838304.256052478</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>838304.256052478</v>
+        <v>838304.2560524781</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>838304.256052478</v>
+        <v>838304.2560524782</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>838304.256052478</v>
+        <v>838304.2560524781</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>838304.256052478</v>
+        <v>838304.2560524781</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>838304.2560524781</v>
+        <v>838304.256052478</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>838304.256052478</v>
+        <v>838304.2560524781</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>838304.2560524781</v>
+        <v>838304.256052478</v>
       </c>
     </row>
   </sheetData>
@@ -26314,34 +26314,34 @@
         <v>595255.2831516046</v>
       </c>
       <c r="C2" t="n">
-        <v>595255.2831516051</v>
+        <v>595255.2831516052</v>
       </c>
       <c r="D2" t="n">
-        <v>595255.2831516056</v>
+        <v>595255.2831516048</v>
       </c>
       <c r="E2" t="n">
-        <v>585181.2847752547</v>
+        <v>585181.2847752542</v>
       </c>
       <c r="F2" t="n">
+        <v>585181.2847752545</v>
+      </c>
+      <c r="G2" t="n">
+        <v>585181.2847752542</v>
+      </c>
+      <c r="H2" t="n">
         <v>585181.2847752544</v>
       </c>
-      <c r="G2" t="n">
-        <v>585181.284775254</v>
-      </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
+        <v>585181.2847752543</v>
+      </c>
+      <c r="J2" t="n">
+        <v>585181.2847752543</v>
+      </c>
+      <c r="K2" t="n">
         <v>585181.2847752545</v>
       </c>
-      <c r="I2" t="n">
+      <c r="L2" t="n">
         <v>585181.2847752544</v>
-      </c>
-      <c r="J2" t="n">
-        <v>585181.2847752547</v>
-      </c>
-      <c r="K2" t="n">
-        <v>585181.2847752544</v>
-      </c>
-      <c r="L2" t="n">
-        <v>585181.2847752545</v>
       </c>
       <c r="M2" t="n">
         <v>585181.2847752544</v>
@@ -26350,10 +26350,10 @@
         <v>585181.2847752544</v>
       </c>
       <c r="O2" t="n">
-        <v>585181.2847752544</v>
+        <v>585181.2847752545</v>
       </c>
       <c r="P2" t="n">
-        <v>585181.2847752545</v>
+        <v>585181.2847752547</v>
       </c>
     </row>
     <row r="3">
@@ -26369,16 +26369,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>390680.0076580798</v>
+        <v>390680.0076580774</v>
       </c>
       <c r="E3" t="n">
-        <v>507909.2320606922</v>
+        <v>507909.2320606947</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68999.15441911407</v>
+        <v>68999.15441911413</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>95270.2377910178</v>
+        <v>95270.23779101725</v>
       </c>
       <c r="M3" t="n">
-        <v>132717.9756954687</v>
+        <v>132717.9756954694</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26421,7 +26421,7 @@
         <v>252122.0652631775</v>
       </c>
       <c r="D4" t="n">
-        <v>141668.8507447208</v>
+        <v>141668.8507447214</v>
       </c>
       <c r="E4" t="n">
         <v>11776.97621680582</v>
@@ -26433,10 +26433,10 @@
         <v>11776.97621680582</v>
       </c>
       <c r="H4" t="n">
-        <v>11776.97621680583</v>
+        <v>11776.97621680584</v>
       </c>
       <c r="I4" t="n">
-        <v>11776.97621680584</v>
+        <v>11776.97621680588</v>
       </c>
       <c r="J4" t="n">
         <v>11776.97621680582</v>
@@ -26451,13 +26451,13 @@
         <v>11776.97621680582</v>
       </c>
       <c r="N4" t="n">
-        <v>11776.97621680586</v>
+        <v>11776.97621680582</v>
       </c>
       <c r="O4" t="n">
         <v>11776.97621680585</v>
       </c>
       <c r="P4" t="n">
-        <v>11776.97621680587</v>
+        <v>11776.97621680582</v>
       </c>
     </row>
     <row r="5">
@@ -26473,7 +26473,7 @@
         <v>63047.80320426619</v>
       </c>
       <c r="D5" t="n">
-        <v>92902.86757567903</v>
+        <v>92902.86757567884</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26522,46 +26522,46 @@
         <v>-400002.5659070322</v>
       </c>
       <c r="C6" t="n">
-        <v>280085.4146841614</v>
+        <v>280085.4146841615</v>
       </c>
       <c r="D6" t="n">
-        <v>-29996.44282687403</v>
+        <v>-29996.44282687285</v>
       </c>
       <c r="E6" t="n">
-        <v>-35627.45332615041</v>
+        <v>-35662.19125158915</v>
       </c>
       <c r="F6" t="n">
-        <v>472281.7787345415</v>
+        <v>472247.0408091058</v>
       </c>
       <c r="G6" t="n">
-        <v>472281.7787345408</v>
+        <v>472247.0408091055</v>
       </c>
       <c r="H6" t="n">
-        <v>472281.7787345416</v>
+        <v>472247.0408091057</v>
       </c>
       <c r="I6" t="n">
-        <v>472281.7787345414</v>
+        <v>472247.0408091057</v>
       </c>
       <c r="J6" t="n">
-        <v>403282.6243154277</v>
+        <v>403247.8863899916</v>
       </c>
       <c r="K6" t="n">
-        <v>472281.7787345414</v>
+        <v>472247.0408091058</v>
       </c>
       <c r="L6" t="n">
-        <v>377011.5409435238</v>
+        <v>376976.8030180885</v>
       </c>
       <c r="M6" t="n">
-        <v>339563.8030390728</v>
+        <v>339529.0651136364</v>
       </c>
       <c r="N6" t="n">
-        <v>472281.7787345415</v>
+        <v>472247.0408091057</v>
       </c>
       <c r="O6" t="n">
-        <v>472281.7787345416</v>
+        <v>472247.0408091058</v>
       </c>
       <c r="P6" t="n">
-        <v>472281.7787345416</v>
+        <v>472247.040809106</v>
       </c>
     </row>
   </sheetData>
@@ -26701,31 +26701,31 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
         <v>1.015790261611063e-14</v>
       </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>3.36886840263309e-14</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
       <c r="P2" t="n">
-        <v>3.720839728281323e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694784</v>
+        <v>614.0550137694783</v>
       </c>
       <c r="C3" t="n">
         <v>614.0550137694783</v>
       </c>
       <c r="D3" t="n">
-        <v>933.7024595627835</v>
+        <v>933.7024595627815</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26793,7 +26793,7 @@
         <v>263.7138800015061</v>
       </c>
       <c r="D4" t="n">
-        <v>640.1406900856966</v>
+        <v>640.1406900856942</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26957,22 +26957,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694784</v>
+        <v>614.0550137694783</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>319.6474457933052</v>
+        <v>319.6474457933033</v>
       </c>
       <c r="E3" t="n">
-        <v>434.27304077889</v>
+        <v>434.2730407788922</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27015,10 +27015,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>376.4268100841905</v>
+        <v>376.4268100841881</v>
       </c>
       <c r="E4" t="n">
-        <v>532.5675980139514</v>
+        <v>532.5675980139541</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015064</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.4268100841903</v>
+        <v>376.4268100841881</v>
       </c>
       <c r="M4" t="n">
-        <v>532.5675980139513</v>
+        <v>532.5675980139541</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27261,10 +27261,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.4268100841905</v>
+        <v>376.4268100841881</v>
       </c>
       <c r="M4" t="n">
-        <v>532.5675980139514</v>
+        <v>532.5675980139541</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27388,13 +27388,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>143.1621657402053</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>314.193632629268</v>
+        <v>50.47975262776185</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27427,25 +27427,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>212.2897156032232</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.1481678782825</v>
       </c>
       <c r="V2" t="n">
-        <v>223.6138671574155</v>
+        <v>68.11956169856018</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>106.0172206769629</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>122.5240586545474</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27458,25 +27458,25 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>136.0227195864234</v>
       </c>
       <c r="H3" t="n">
-        <v>99.47932027120974</v>
+        <v>99.47932027120976</v>
       </c>
       <c r="I3" t="n">
-        <v>43.92180400150558</v>
+        <v>43.9218040015056</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,28 +27503,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>18.15252495527768</v>
       </c>
       <c r="S3" t="n">
-        <v>147.1499354121988</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>194.8409875848768</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8544875035546</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>35.82772365795896</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>168.3354475788764</v>
       </c>
     </row>
     <row r="4">
@@ -27552,13 +27552,13 @@
         <v>166.8836670385466</v>
       </c>
       <c r="H4" t="n">
-        <v>89.10716589247789</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>122.1505735248085</v>
       </c>
       <c r="J4" t="n">
-        <v>15.07219909888208</v>
+        <v>15.07219909888209</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,28 +27582,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>127.5046028836639</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>204.7191642435938</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>223.2143458795659</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2586305026775</v>
+        <v>225.2910301688121</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>22.80911833508486</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,13 +27613,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>119.0199616619744</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>152.7039266531025</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>90.96916161917682</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -27631,7 +27631,7 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>314.193632629268</v>
+        <v>50.47975262776185</v>
       </c>
       <c r="I5" t="n">
         <v>115.3066195468971</v>
@@ -27664,7 +27664,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>212.2897156032232</v>
@@ -27673,10 +27673,10 @@
         <v>251.1481678782825</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>267.950986551452</v>
       </c>
       <c r="W5" t="n">
-        <v>85.52708871590687</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27692,7 +27692,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>39.06360943114899</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
@@ -27743,10 +27743,10 @@
         <v>18.15252495527768</v>
       </c>
       <c r="S6" t="n">
-        <v>147.1499354121988</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>194.8409875848768</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>225.8544875035546</v>
@@ -27755,13 +27755,13 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>8.838653001052876</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27774,16 +27774,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>26.09547850815628</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>92.05694097045114</v>
       </c>
       <c r="G7" t="n">
         <v>166.8836670385466</v>
@@ -27819,7 +27819,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>127.5046028836639</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>204.7191642435938</v>
@@ -27831,7 +27831,7 @@
         <v>286.2586305026775</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27850,13 +27850,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27865,10 +27865,10 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>213.5917010114473</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0334742203004</v>
+        <v>301.0334742203005</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,22 +27901,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4854171348406</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6645630646898</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.0453666896857</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>171.9066996444601</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -27938,7 +27938,7 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>1.776449164536416</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -27947,7 +27947,7 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>1.776449164526994</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -28011,25 +28011,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>51.94107493060535</v>
+        <v>166.3072536117062</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2573199590395</v>
+        <v>147.2573199590396</v>
       </c>
       <c r="I10" t="n">
-        <v>104.8162497430995</v>
+        <v>104.8162497430996</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,28 +28056,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5869591640953</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6738502503845</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7514885103387</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>265.6876672912386</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28102,7 +28102,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -28147,7 +28147,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -28251,7 +28251,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>-3.959144123655279e-12</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -28269,7 +28269,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>-1.696776052995119e-12</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28624,7 +28624,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -28719,7 +28719,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-3.959144123655279e-12</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -28752,7 +28752,7 @@
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>-1.696776052995119e-12</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
@@ -28813,10 +28813,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H20" t="n">
-        <v>2.8421709430404e-13</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -29053,7 +29053,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29478,7 +29478,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>-1.696776052995119e-12</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -29518,7 +29518,7 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-13</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -29527,7 +29527,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -29706,7 +29706,7 @@
         <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>-1.696776052995119e-12</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
         <v>0</v>
@@ -29761,7 +29761,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -29943,7 +29943,7 @@
         <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>-1.696776052995119e-12</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
@@ -30223,7 +30223,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>9.426059932593489e-13</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -30475,7 +30475,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -30514,7 +30514,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -30639,7 +30639,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>-2.443332518818138e-12</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -30700,13 +30700,13 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>1.041087216435699e-12</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -31039,31 +31039,31 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.468562869425037</v>
+        <v>2.468562869425036</v>
       </c>
       <c r="H2" t="n">
         <v>25.28116948649916</v>
       </c>
       <c r="I2" t="n">
-        <v>95.16927002350883</v>
+        <v>95.1692700235088</v>
       </c>
       <c r="J2" t="n">
         <v>209.5161878388634</v>
       </c>
       <c r="K2" t="n">
-        <v>314.0104541016253</v>
+        <v>314.0104541016252</v>
       </c>
       <c r="L2" t="n">
         <v>389.5577350167918</v>
       </c>
       <c r="M2" t="n">
-        <v>433.4580399459293</v>
+        <v>433.4580399459292</v>
       </c>
       <c r="N2" t="n">
-        <v>440.4718441986832</v>
+        <v>440.4718441986831</v>
       </c>
       <c r="O2" t="n">
-        <v>415.925072165838</v>
+        <v>415.9250721658379</v>
       </c>
       <c r="P2" t="n">
         <v>354.9824263269073</v>
@@ -31075,7 +31075,7 @@
         <v>155.0658623465206</v>
       </c>
       <c r="S2" t="n">
-        <v>56.25237638702308</v>
+        <v>56.25237638702307</v>
       </c>
       <c r="T2" t="n">
         <v>10.8061339609081</v>
@@ -31124,16 +31124,16 @@
         <v>12.75612396528671</v>
       </c>
       <c r="I3" t="n">
-        <v>45.47482884990949</v>
+        <v>45.47482884990948</v>
       </c>
       <c r="J3" t="n">
-        <v>124.7864061472485</v>
+        <v>124.7864061472484</v>
       </c>
       <c r="K3" t="n">
         <v>213.2798437919895</v>
       </c>
       <c r="L3" t="n">
-        <v>286.7810703458305</v>
+        <v>286.7810703458304</v>
       </c>
       <c r="M3" t="n">
         <v>334.6599825043656</v>
@@ -31142,25 +31142,25 @@
         <v>343.517436429399</v>
       </c>
       <c r="O3" t="n">
-        <v>314.2513427542726</v>
+        <v>314.2513427542725</v>
       </c>
       <c r="P3" t="n">
-        <v>252.2144074480713</v>
+        <v>252.2144074480712</v>
       </c>
       <c r="Q3" t="n">
         <v>168.5986520825179</v>
       </c>
       <c r="R3" t="n">
-        <v>82.00530919736546</v>
+        <v>82.00530919736545</v>
       </c>
       <c r="S3" t="n">
         <v>24.53323569163905</v>
       </c>
       <c r="T3" t="n">
-        <v>5.323741109944815</v>
+        <v>5.323741109944814</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08689457742020924</v>
+        <v>0.08689457742020923</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31200,16 +31200,16 @@
         <v>1.107312319912174</v>
       </c>
       <c r="H4" t="n">
-        <v>9.84501317158279</v>
+        <v>9.845013171582789</v>
       </c>
       <c r="I4" t="n">
         <v>33.29990140244975</v>
       </c>
       <c r="J4" t="n">
-        <v>78.28698101779069</v>
+        <v>78.28698101779068</v>
       </c>
       <c r="K4" t="n">
-        <v>128.6495586225235</v>
+        <v>128.6495586225234</v>
       </c>
       <c r="L4" t="n">
         <v>164.6271425440336</v>
@@ -31221,25 +31221,25 @@
         <v>169.4489843734694</v>
       </c>
       <c r="O4" t="n">
-        <v>156.5135631817681</v>
+        <v>156.513563181768</v>
       </c>
       <c r="P4" t="n">
         <v>133.9243918555596</v>
       </c>
       <c r="Q4" t="n">
-        <v>92.72230707919122</v>
+        <v>92.72230707919121</v>
       </c>
       <c r="R4" t="n">
-        <v>49.78878849350556</v>
+        <v>49.78878849350555</v>
       </c>
       <c r="S4" t="n">
-        <v>19.29743379337852</v>
+        <v>19.29743379337851</v>
       </c>
       <c r="T4" t="n">
-        <v>4.731243548715652</v>
+        <v>4.731243548715651</v>
       </c>
       <c r="U4" t="n">
-        <v>0.06039885381339138</v>
+        <v>0.06039885381339136</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.753577726885559</v>
+        <v>3.753577726885551</v>
       </c>
       <c r="H8" t="n">
-        <v>38.44132789546674</v>
+        <v>38.44132789546666</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7098053157557</v>
+        <v>144.7098053157553</v>
       </c>
       <c r="J8" t="n">
-        <v>318.5802175972535</v>
+        <v>318.5802175972528</v>
       </c>
       <c r="K8" t="n">
-        <v>477.4691627763193</v>
+        <v>477.4691627763183</v>
       </c>
       <c r="L8" t="n">
-        <v>592.3427171354933</v>
+        <v>592.3427171354921</v>
       </c>
       <c r="M8" t="n">
-        <v>659.0954050359944</v>
+        <v>659.0954050359931</v>
       </c>
       <c r="N8" t="n">
-        <v>669.760257752508</v>
+        <v>669.7602577525066</v>
       </c>
       <c r="O8" t="n">
-        <v>632.4356192307897</v>
+        <v>632.4356192307883</v>
       </c>
       <c r="P8" t="n">
-        <v>539.7691690983024</v>
+        <v>539.7691690983013</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.3441667542132</v>
+        <v>405.3441667542123</v>
       </c>
       <c r="R8" t="n">
-        <v>235.7856768864752</v>
+        <v>235.7856768864747</v>
       </c>
       <c r="S8" t="n">
-        <v>85.53465245140475</v>
+        <v>85.53465245140458</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43128649944154</v>
+        <v>16.43128649944151</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3002862181508447</v>
+        <v>0.3002862181508441</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.008341139436931</v>
+        <v>2.008341139436927</v>
       </c>
       <c r="H9" t="n">
-        <v>19.39634732035141</v>
+        <v>19.39634732035137</v>
       </c>
       <c r="I9" t="n">
-        <v>69.14683309026275</v>
+        <v>69.1468330902626</v>
       </c>
       <c r="J9" t="n">
-        <v>189.7441951079427</v>
+        <v>189.7441951079423</v>
       </c>
       <c r="K9" t="n">
-        <v>324.303051450217</v>
+        <v>324.3030514502163</v>
       </c>
       <c r="L9" t="n">
-        <v>436.0654741571283</v>
+        <v>436.0654741571274</v>
       </c>
       <c r="M9" t="n">
-        <v>508.8678404617169</v>
+        <v>508.8678404617159</v>
       </c>
       <c r="N9" t="n">
-        <v>522.3360580152217</v>
+        <v>522.3360580152206</v>
       </c>
       <c r="O9" t="n">
-        <v>477.8354464519086</v>
+        <v>477.8354464519076</v>
       </c>
       <c r="P9" t="n">
-        <v>383.5050724947592</v>
+        <v>383.5050724947584</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.3629847463703</v>
+        <v>256.3629847463698</v>
       </c>
       <c r="R9" t="n">
-        <v>124.6933209204789</v>
+        <v>124.6933209204787</v>
       </c>
       <c r="S9" t="n">
-        <v>37.30405581366401</v>
+        <v>37.30405581366394</v>
       </c>
       <c r="T9" t="n">
-        <v>8.09502415413394</v>
+        <v>8.095024154133924</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321277065419034</v>
+        <v>0.1321277065419031</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.68372574675256</v>
+        <v>1.683725746752557</v>
       </c>
       <c r="H10" t="n">
-        <v>14.96985254840005</v>
+        <v>14.96985254840001</v>
       </c>
       <c r="I10" t="n">
-        <v>50.63422518415882</v>
+        <v>50.63422518415872</v>
       </c>
       <c r="J10" t="n">
-        <v>119.039410295406</v>
+        <v>119.0394102954058</v>
       </c>
       <c r="K10" t="n">
-        <v>195.618318577252</v>
+        <v>195.6183185772516</v>
       </c>
       <c r="L10" t="n">
-        <v>250.3240987490125</v>
+        <v>250.324098749012</v>
       </c>
       <c r="M10" t="n">
-        <v>263.9316641023127</v>
+        <v>263.9316641023121</v>
       </c>
       <c r="N10" t="n">
-        <v>257.6559590462351</v>
+        <v>257.6559590462346</v>
       </c>
       <c r="O10" t="n">
-        <v>237.9869810046256</v>
+        <v>237.9869810046251</v>
       </c>
       <c r="P10" t="n">
-        <v>203.6389757708732</v>
+        <v>203.6389757708728</v>
       </c>
       <c r="Q10" t="n">
-        <v>140.9890713939803</v>
+        <v>140.98907139398</v>
       </c>
       <c r="R10" t="n">
-        <v>75.70643221307418</v>
+        <v>75.70643221307402</v>
       </c>
       <c r="S10" t="n">
-        <v>29.34274778658779</v>
+        <v>29.34274778658773</v>
       </c>
       <c r="T10" t="n">
-        <v>7.194100917942755</v>
+        <v>7.19410091794274</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09183958618650338</v>
+        <v>0.0918395861865032</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,37 +31750,37 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
         <v>345.4516222043725</v>
@@ -31789,10 +31789,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31838,37 +31838,37 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420754</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473071</v>
+        <v>555.1777416630679</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>437.8531046913764</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31914,28 +31914,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31944,7 +31944,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31987,37 +31987,37 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
         <v>345.4516222043725</v>
@@ -32026,10 +32026,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32072,25 +32072,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420754</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>339.3493584601599</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437242</v>
+        <v>512.9101366533182</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32099,13 +32099,13 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
         <v>0.1935814387275954</v>
@@ -32151,28 +32151,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515927</v>
@@ -32181,7 +32181,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32309,34 +32309,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>303.4024373464761</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>396.970088694367</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32546,19 +32546,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>732.4825987614915</v>
+        <v>560.1612034965808</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
@@ -32567,10 +32567,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>182.6892564418561</v>
@@ -32783,25 +32783,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>183.7183104822601</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>732.4825987614915</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
         <v>561.8765786214698</v>
@@ -33020,19 +33020,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>734.2678383622665</v>
+        <v>171.5999003578897</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
@@ -33041,7 +33041,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>375.599612848529</v>
@@ -33263,10 +33263,10 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>555.1777416630679</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
@@ -33275,16 +33275,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33442,7 +33442,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
         <v>125.31755462929</v>
@@ -33494,28 +33494,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>691.6611968462892</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>375.599612848529</v>
@@ -33655,7 +33655,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K35" t="n">
         <v>699.5441750817575</v>
@@ -33737,22 +33737,22 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>344.2757660550399</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>375.599612848529</v>
@@ -33889,7 +33889,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33968,7 +33968,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>126.8376266666667</v>
@@ -33977,10 +33977,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>162.5000833330458</v>
       </c>
       <c r="M39" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
@@ -33995,7 +33995,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34120,37 +34120,37 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
         <v>345.4516222043725</v>
@@ -34159,10 +34159,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34211,34 +34211,34 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>217.8799919951683</v>
       </c>
       <c r="M42" t="n">
-        <v>734.267838362267</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>182.689256441856</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
         <v>0.1935814387275954</v>
@@ -34284,28 +34284,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P43" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
         <v>206.5643005515927</v>
@@ -34314,7 +34314,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
@@ -34357,37 +34357,37 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
         <v>345.4516222043725</v>
@@ -34396,10 +34396,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34442,40 +34442,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473071</v>
+        <v>240.4469701760392</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862119</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>322.8964653704916</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
         <v>0.1935814387275954</v>
@@ -34521,28 +34521,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P46" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
         <v>206.5643005515927</v>
@@ -34551,7 +34551,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28.47028331217712</v>
+        <v>28.47028331217709</v>
       </c>
       <c r="K2" t="n">
-        <v>93.92060305664472</v>
+        <v>93.92060305664467</v>
       </c>
       <c r="L2" t="n">
-        <v>153.7913200468046</v>
+        <v>153.7913200468045</v>
       </c>
       <c r="M2" t="n">
-        <v>203.1118067186566</v>
+        <v>203.1118067186565</v>
       </c>
       <c r="N2" t="n">
-        <v>211.0587806020923</v>
+        <v>211.0587806020922</v>
       </c>
       <c r="O2" t="n">
-        <v>185.8268607441513</v>
+        <v>185.8268607441512</v>
       </c>
       <c r="P2" t="n">
-        <v>123.7494305716378</v>
+        <v>123.7494305716377</v>
       </c>
       <c r="Q2" t="n">
-        <v>44.27132869117364</v>
+        <v>44.27132869117358</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,13 +34775,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>97.32166909127218</v>
+        <v>97.32166909127238</v>
       </c>
       <c r="K3" t="n">
-        <v>75.4384048176305</v>
+        <v>75.43840481763047</v>
       </c>
       <c r="L3" t="n">
-        <v>148.2266905659563</v>
+        <v>148.2266905659562</v>
       </c>
       <c r="M3" t="n">
         <v>192.5259485823473</v>
@@ -34796,7 +34796,7 @@
         <v>118.240000033741</v>
       </c>
       <c r="Q3" t="n">
-        <v>28.61687799649641</v>
+        <v>28.61687799649638</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34860,13 +34860,13 @@
         <v>106.3800667966406</v>
       </c>
       <c r="L4" t="n">
-        <v>192.2171678043497</v>
+        <v>192.2171678043496</v>
       </c>
       <c r="M4" t="n">
         <v>213.1601163458916</v>
       </c>
       <c r="N4" t="n">
-        <v>213.5811567526977</v>
+        <v>213.581156752698</v>
       </c>
       <c r="O4" t="n">
         <v>181.0986910958077</v>
@@ -34875,7 +34875,7 @@
         <v>131.2029511204531</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.56026382749684</v>
+        <v>6.560263827496826</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35015,7 +35015,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>172.7600739089029</v>
+        <v>75.43840481763047</v>
       </c>
       <c r="L6" t="n">
         <v>148.2266905659562</v>
@@ -35027,10 +35027,10 @@
         <v>212.1757243460657</v>
       </c>
       <c r="O6" t="n">
-        <v>171.6550983098281</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="P6" t="n">
-        <v>118.240000033741</v>
+        <v>123.5028874333353</v>
       </c>
       <c r="Q6" t="n">
         <v>28.61687799649638</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.5343130705672</v>
+        <v>137.5343130705666</v>
       </c>
       <c r="K8" t="n">
-        <v>257.3793117313388</v>
+        <v>257.3793117313377</v>
       </c>
       <c r="L8" t="n">
-        <v>356.5763021655061</v>
+        <v>356.5763021655048</v>
       </c>
       <c r="M8" t="n">
-        <v>428.7491718087217</v>
+        <v>428.7491718087203</v>
       </c>
       <c r="N8" t="n">
-        <v>440.3471941559171</v>
+        <v>440.3471941559157</v>
       </c>
       <c r="O8" t="n">
-        <v>402.337407809103</v>
+        <v>402.3374078091016</v>
       </c>
       <c r="P8" t="n">
-        <v>308.5361733430329</v>
+        <v>308.5361733430317</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.0384768797637</v>
+        <v>183.0384768797628</v>
       </c>
       <c r="R8" t="n">
-        <v>20.20013907234306</v>
+        <v>20.20013907234258</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,31 +35249,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.90656844127597</v>
+        <v>62.90656844127557</v>
       </c>
       <c r="K9" t="n">
-        <v>372.4033415901618</v>
+        <v>450.9268494884359</v>
       </c>
       <c r="L9" t="n">
-        <v>297.5110943772542</v>
+        <v>297.5110943772532</v>
       </c>
       <c r="M9" t="n">
-        <v>366.7338065396986</v>
+        <v>366.7338065396976</v>
       </c>
       <c r="N9" t="n">
-        <v>390.9943459318885</v>
+        <v>640.1406900856942</v>
       </c>
       <c r="O9" t="n">
-        <v>335.2392020074642</v>
+        <v>335.2392020074632</v>
       </c>
       <c r="P9" t="n">
-        <v>567.9934337203661</v>
+        <v>249.5306650804282</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.3812106603488</v>
+        <v>116.3812106603482</v>
       </c>
       <c r="R9" t="n">
-        <v>24.53548676783581</v>
+        <v>15.32840335568808</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.68023017873323</v>
+        <v>25.68023017873298</v>
       </c>
       <c r="K10" t="n">
-        <v>173.3488267513691</v>
+        <v>173.3488267513687</v>
       </c>
       <c r="L10" t="n">
-        <v>277.9141240093286</v>
+        <v>277.9141240093281</v>
       </c>
       <c r="M10" t="n">
-        <v>303.5155410641532</v>
+        <v>303.5155410641527</v>
       </c>
       <c r="N10" t="n">
-        <v>301.7881314254637</v>
+        <v>301.7881314254632</v>
       </c>
       <c r="O10" t="n">
-        <v>262.5721089186653</v>
+        <v>262.5721089186648</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9175350357667</v>
+        <v>200.9175350357663</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.82702814228593</v>
+        <v>54.82702814228561</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,31 +35404,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902404</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754087</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678995</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674329</v>
+        <v>416.6233618831937</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992797</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>303.8786972770462</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295167</v>
       </c>
       <c r="K13" t="n">
         <v>264.3325884096349</v>
@@ -35574,19 +35574,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,31 +35641,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902404</v>
@@ -35720,25 +35720,25 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754087</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>200.7949786802858</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992797</v>
+        <v>370.3138922088737</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35747,7 +35747,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
         <v>264.3325884096349</v>
@@ -35811,19 +35811,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>165.5609983721171</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>254.8360547723487</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36048,7 +36048,7 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010434</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
@@ -36194,19 +36194,19 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>590.3485648394733</v>
+        <v>418.0271695745625</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
@@ -36215,10 +36215,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>37.00975247789211</v>
@@ -36431,25 +36431,25 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>45.87687150790111</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>590.3485648394733</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>427.9021712071395</v>
@@ -36668,19 +36668,19 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>592.1338044402481</v>
+        <v>29.46586643587134</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
@@ -36689,7 +36689,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>235.6178387625075</v>
@@ -36911,10 +36911,10 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>416.6233618831937</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36923,16 +36923,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37002,7 +37002,7 @@
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060437</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37090,7 +37090,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,28 +37142,28 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>560.3194847629559</v>
       </c>
       <c r="O33" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>235.6178387625075</v>
@@ -37239,7 +37239,7 @@
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060437</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37303,7 +37303,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K35" t="n">
         <v>479.454324036777</v>
@@ -37385,22 +37385,22 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>212.9340539717066</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>235.6178387625075</v>
@@ -37537,7 +37537,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -37625,10 +37625,10 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>23.94570355317166</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402482</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
@@ -37643,7 +37643,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37774,31 +37774,31 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367777</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
         <v>129.8660843902404</v>
@@ -37859,28 +37859,28 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>79.32561221529411</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402486</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992797</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789208</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326294956</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
         <v>264.3325884096349</v>
@@ -37944,19 +37944,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q43" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,31 +38011,31 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
         <v>129.8660843902404</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674329</v>
+        <v>101.892590396165</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641936</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992797</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>188.9220579561613</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
         <v>264.3325884096349</v>
@@ -38181,19 +38181,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q46" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998967</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
